--- a/data/suma_brief_self.xlsx
+++ b/data/suma_brief_self.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Pilot Data/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Pilot Data/summer_pilot/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05C6A07D-95C1-5249-B9CA-12407A7F921C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE5EE27-0F4A-6F43-84F1-EDCD58DCC360}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="1460" windowWidth="27240" windowHeight="15260" xr2:uid="{E9C507F9-C8E2-3845-96E4-CDC071805302}"/>
   </bookViews>
@@ -435,7 +435,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -463,6 +463,9 @@
       <c r="B2">
         <v>61</v>
       </c>
+      <c r="C2">
+        <v>58</v>
+      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
@@ -471,6 +474,9 @@
       <c r="B3">
         <v>46</v>
       </c>
+      <c r="C3">
+        <v>46</v>
+      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
@@ -479,6 +485,9 @@
       <c r="B4">
         <v>55</v>
       </c>
+      <c r="C4">
+        <v>53</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
@@ -487,6 +496,9 @@
       <c r="B5">
         <v>58</v>
       </c>
+      <c r="C5">
+        <v>49</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
@@ -495,6 +507,9 @@
       <c r="B6">
         <v>54</v>
       </c>
+      <c r="C6">
+        <v>57</v>
+      </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
@@ -503,6 +518,9 @@
       <c r="B7">
         <v>57</v>
       </c>
+      <c r="C7">
+        <v>53</v>
+      </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
@@ -516,6 +534,9 @@
       <c r="B9">
         <v>88</v>
       </c>
+      <c r="C9">
+        <v>75</v>
+      </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
@@ -524,6 +545,9 @@
       <c r="B10">
         <v>71</v>
       </c>
+      <c r="C10">
+        <v>60</v>
+      </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
@@ -532,6 +556,9 @@
       <c r="B11">
         <v>89</v>
       </c>
+      <c r="C11">
+        <v>79</v>
+      </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
@@ -545,6 +572,9 @@
       <c r="B13">
         <v>84</v>
       </c>
+      <c r="C13">
+        <v>72</v>
+      </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
@@ -552,6 +582,9 @@
       </c>
       <c r="B14">
         <v>71</v>
+      </c>
+      <c r="C14">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
